--- a/sprint_grupo7/TI/Grafico BurnDown.xlsx
+++ b/sprint_grupo7/TI/Grafico BurnDown.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thiag\OneDrive\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thiag\OneDrive\Documentos\Pesquisa e inovação\sprint_01\sprint_grupo7\TI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{083411A8-9F52-49CB-9193-1435C7CEF6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33A1DE7-5BE3-4375-BF61-ED92AFCC972C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{3698AED0-CDD5-4485-9C23-6435B0F20BE7}"/>
+    <workbookView xWindow="1968" yWindow="24" windowWidth="21168" windowHeight="12336" activeTab="1" xr2:uid="{3698AED0-CDD5-4485-9C23-6435B0F20BE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha2" sheetId="2" r:id="rId1"/>
@@ -361,16 +361,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>290</c:v>
+                  <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>217</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>144</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>72</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -447,16 +447,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>290</c:v>
+                  <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>272</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>186</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>68</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1647,7 +1647,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1703,10 +1703,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="3">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="E3" s="3">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="F3" s="3">
         <v>18</v>
@@ -1724,13 +1724,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
+        <v>177</v>
+      </c>
+      <c r="E4" s="3">
         <v>217</v>
       </c>
-      <c r="E4" s="3">
-        <v>272</v>
-      </c>
       <c r="F4" s="3">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -1745,13 +1745,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="3">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="E5" s="3">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="F5" s="3">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -1766,13 +1766,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E6" s="3">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="F6" s="3">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="G6" s="1"/>
     </row>

--- a/sprint_grupo7/TI/Grafico BurnDown.xlsx
+++ b/sprint_grupo7/TI/Grafico BurnDown.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thiag\OneDrive\Documentos\Pesquisa e inovação\sprint_01\sprint_grupo7\TI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WINDOWS\Desktop\aula\sptech\pesquisa e inovação\sprint_02\sprint_grupo7\TI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33A1DE7-5BE3-4375-BF61-ED92AFCC972C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF79176-4629-4554-90BF-7ED7D63477AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1968" yWindow="24" windowWidth="21168" windowHeight="12336" activeTab="1" xr2:uid="{3698AED0-CDD5-4485-9C23-6435B0F20BE7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3698AED0-CDD5-4485-9C23-6435B0F20BE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha2" sheetId="2" r:id="rId1"/>
@@ -20,17 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -290,8 +279,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.9247594050743664E-2"/>
-          <c:y val="0.17171296296296298"/>
+          <c:x val="7.0794979859226448E-2"/>
+          <c:y val="0.13195753584938735"/>
           <c:w val="0.89019685039370078"/>
           <c:h val="0.61498432487605714"/>
         </c:manualLayout>
@@ -453,7 +442,7 @@
                   <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>154</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>86</c:v>
@@ -1636,7 +1625,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1647,24 +1636,24 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1673,7 +1662,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -1692,7 +1681,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -1713,7 +1702,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -1734,7 +1723,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -1748,14 +1737,14 @@
         <v>118</v>
       </c>
       <c r="E5" s="3">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="F5" s="3">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
@@ -1772,11 +1761,11 @@
         <v>86</v>
       </c>
       <c r="F6" s="3">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1799,7 +1788,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
@@ -1814,7 +1803,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1825,7 +1814,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1836,7 +1825,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1847,7 +1836,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1858,7 +1847,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1869,7 +1858,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1880,7 +1869,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1891,7 +1880,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1902,7 +1891,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
